--- a/Data/fam-gen-freq-contg.xlsx
+++ b/Data/fam-gen-freq-contg.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,17 +388,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lafoeidae</t>
+          <t>Campanulariidae</t>
         </is>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
@@ -408,45 +408,45 @@
         </is>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="D3">
-        <v>73</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Campanulariidae</t>
+          <t>Lafoeidae</t>
         </is>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sertularellidae</t>
+          <t>Halopterididae</t>
         </is>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -456,362 +456,362 @@
         </is>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Halopterididae</t>
+          <t>Bougainvilliidae</t>
         </is>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Syntheciidae</t>
+          <t>Haleciidae</t>
         </is>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tiarannidae</t>
+          <t>Aglaopheniidae</t>
         </is>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bougainvilliidae</t>
+          <t>Plumulariidae</t>
         </is>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Haleciidae</t>
+          <t>Sertularellidae</t>
         </is>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kirchenpaueriidae</t>
+          <t>Tiarannidae</t>
         </is>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aglaopheniidae</t>
+          <t>Zygophylacidae</t>
         </is>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Plumulariidae</t>
+          <t>Campanulinidae</t>
         </is>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Symplectoscyphidae</t>
+          <t>Corynidae</t>
         </is>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Campanulinidae</t>
+          <t>Kirchenpaueriidae</t>
         </is>
       </c>
       <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thyroscyphidae</t>
+          <t>Oceaniidae</t>
         </is>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hydractiniidae</t>
+          <t>Syntheciidae</t>
         </is>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Zygophylacidae</t>
+          <t>Eudendriidae</t>
         </is>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Corynidae</t>
+          <t>Tubulariidae</t>
         </is>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Eudendriidae</t>
+          <t>Symplectoscyphidae</t>
         </is>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lovenellidae</t>
+          <t>Thyroscyphidae</t>
         </is>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Oceaniidae</t>
+          <t>Cladocorynidae</t>
         </is>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Phialellidae</t>
+          <t>Hydractiniidae</t>
         </is>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tiaropsidae</t>
+          <t>Pandeidae</t>
         </is>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tubulariidae</t>
+          <t>Cirrholoveniidae</t>
         </is>
       </c>
       <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
       <c r="D26">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Phylactothecidae</t>
+          <t>Acaulidae</t>
         </is>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>0</v>
       </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clathrozoidae</t>
+          <t>Cordylophoridae</t>
         </is>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -820,48 +820,240 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pennariidae</t>
+          <t>Laodiceidae</t>
         </is>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Solanderiidae</t>
+          <t>Lovenellidae</t>
         </is>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Mitrocomidae</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Pennariidae</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Phialellidae</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Phylactothecidae</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Plumulariiidae</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tiaropsidae</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Zancleidae</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Schizotrichidae</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Clathrozoidae</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Gonaxiidae</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Solanderiidae</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Stylasteridae</t>
         </is>
       </c>
-      <c r="B31">
+      <c r="B42">
         <v>0</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Tubulriidae</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
         <v>1</v>
       </c>
     </row>
@@ -872,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A243"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -881,707 +1073,1703 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Scientific_name_EP</t>
+          <t>EpiHydSpe</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amphisbetia minima</t>
+          <t>Acaulis primarius Stimpson, 1853</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amphisbetia operculata</t>
+          <t>Acryptolaria conferta (Allman, 1877)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Antennella kiwiana</t>
+          <t>Aglaophenia dubia Nutting, 1900</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Antennella secundaria</t>
+          <t>Aglaophenia kirchenpaueri (Heller, 1868)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Anthohebella brevitheca</t>
+          <t>Aglaophenia latecarinata Allman, 1877</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anthohebella parasitica</t>
+          <t>Aglaophenia lophocarpa Allman, 1877</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Billardia novaezealandiae</t>
+          <t>Aglaophenia octodonta (Heller, 1868)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bougainvillia muscoides</t>
+          <t>Aglaophenia parvula Bale, 1882</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bougainvillia muscus</t>
+          <t>Aglaophenia pluma (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bougainvillia pyramidata</t>
+          <t>Aglaophenia rhynchocarpa Allman, 1877</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Campanularia</t>
+          <t>Aglaophenia svobodai Ansin Agis, Ramil &amp; Vervoort, 2001</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Campanularia hicksoni</t>
+          <t>Aglaophenia tubulifera (Hincks, 1861)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Campanularia lennoxensis</t>
+          <t>Amphisbetia distans (Lamouroux, 1816)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Campanulina</t>
+          <t>Amphisbetia minima (Thompson, 1879)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Clytia</t>
+          <t>Amphisbetia operculata (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Clytia hemisphaerica</t>
+          <t>Antennella ansini Peña Cantero &amp; García Carrascosa, 2002</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Clytia reloncavia</t>
+          <t>Antennella campanulaformis (Mulder &amp; Trebilcock, 1909)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Coryne sagamiensis</t>
+          <t>Antennella incerta Galea, 2010</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cuspidella urceolata</t>
+          <t>Antennella kiwiana Schuchert, 1997</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dictyocladium monilifer</t>
+          <t>Antennella quadriaurita Ritchie, 1909</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dictyocladium thuja</t>
+          <t>Antennella quaterna Galea, 2015</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Diphasia cristata</t>
+          <t>Antennella secundaria (Gmelin, 1791)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Diphasia nuttingi</t>
+          <t>Antennella siliquosa (Hincks, 1877)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dynamena maldivensis</t>
+          <t>Anthohebella brevitheca (Leloup, 1938)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dynamena quadridentata</t>
+          <t>Anthohebella communis (Calder, 1991)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Eudendrium</t>
+          <t>Anthohebella darwinensis Watson, 2000</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Filellum</t>
+          <t>Anthohebella parasitica (Ciamician, 1880)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Filellum antarcticum</t>
+          <t>Bedotella armata (Pictet &amp; Bedot, 1900)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Filellum serpens</t>
+          <t>Billardia novaezealandiae Totton, 1930</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Filellum serratum</t>
+          <t>Bimeria vestita Wright, 1859</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fiordlandia protecta</t>
+          <t>Bougainvillia muscoides (Sars, 1846)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Grammaria borealis</t>
+          <t>Bougainvillia muscus (Allman, 1863)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gymnangium humile</t>
+          <t>Bougainvillia principis (Steenstrup, 1850)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gymnangium prolifer</t>
+          <t>Bougainvillia pyramidata (Forbes &amp; Goodsir, 1853)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gymnangium tubuliferum</t>
+          <t>Bougainvillia rugosa Clarke, 1882</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Halecium annuliforme</t>
+          <t>Calycella syringa (Linnaeus, 1767)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Halecium delicatulum</t>
+          <t>Calyptospadix cerulea Clarke, 1882</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Halecium fragile</t>
+          <t>Campanularia groenlandica Levinsen, 1893</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Halecium platythecum</t>
+          <t>Campanularia hincksii Alder, 1856</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Halecium tenellum</t>
+          <t>Campanularia lennoxensis Jäderholm, 1903</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Halopteris campanula</t>
+          <t>Campanularia macroscypha Allman, 1877</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Halopteris concava</t>
+          <t>Campanularia volubilis (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Halopteris minuta</t>
+          <t>Campanulina pumila (Clark, 1875)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Halopteris plumosa</t>
+          <t>Campanulina pumila (Clarke, 1875)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Hebella dyssymetra</t>
+          <t>Cirrholovenia tetranema Kramp, 1959</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hebella scandens</t>
+          <t>Cladocoryne floccosa Rotch, 1871</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hebella striata</t>
+          <t>Clytia elsaeoswaldae Stechow, 1914</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hydractinia monoon</t>
+          <t>Clytia gracilis (M. Sars, 1850)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kirchenpaueria bonnevieae</t>
+          <t>Clytia hemisphaerica (Linnaeus, 1767)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kirchenpaueria curvata</t>
+          <t xml:space="preserve">Clytia hemisphaerica (Linnaeus, 1767)
+</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lafoea dumosa</t>
+          <t>Clytia kincaidi (Nutting, 1899)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Lovenella</t>
+          <t>Clytia linearis (Thorneley, 1900)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lytocarpia epizoica</t>
+          <t>Clytia macrotheca (Perkins, 1908)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lytocarpia incisa</t>
+          <t>Clytia noliformis (McCrady, 1859) sensu Calder, 1991</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Macrorhynchia philippina</t>
+          <t>Clytia paulensis (Vanhöffen, 1910)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Modeeria rotunda</t>
+          <t>Clytia reloncavia Galea &amp; Schories, 2012</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Monostaechas quadridens</t>
+          <t>Clytia warreni Stechow, 1919</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Monotheca pulchella</t>
+          <t>Cordylophora caspia (Pallas, 1771)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Opercularella</t>
+          <t>Corydendrium dispar Kramp, 1935</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Orthopyxis affabilis</t>
+          <t>Coryne pusilla Gaertner, 1774</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Orthopyxis crenata</t>
+          <t>Coryne sagamiensis Hirohito, 1988</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Orthopyxis mollis</t>
+          <t>Cryptolaria pectinata (Allman, 1888)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Parascyphus simplex</t>
+          <t>Cyclocanna producta (G.O. Sars, 1874)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Phialella quadrata</t>
+          <t>Dictyocladium monilifer (Hutton, 1873)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Plumularia</t>
+          <t>Dictyocladium thuja Vervoort &amp; Watson, 2003</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Plumularia epibracteolosa</t>
+          <t>Diphasia cristata Billard, 1920</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Plumularia hyalina</t>
+          <t>Diphasia delagei Billard, 1912</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Plumularia setacea</t>
+          <t>Diphasia digitalis (Busk, 1852)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Podocoryne</t>
+          <t>Diphasia fallax (Johnston, 1847)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Pycnotheca mirabilis</t>
+          <t>Diphasia margareta (Hassall, 1841)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Salacia bicalycula</t>
+          <t>Diphasia mutulata (Busk, 1852)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Salacia desmoides</t>
+          <t>Diphasia nigra (Pallas, 1766)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Salacia farquhari</t>
+          <t>Diphasia nuttingi Stechow, 1913</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sertularella</t>
+          <t>Diphasia rosacea (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sertularella acutidentata</t>
+          <t>Diphasia scalariformis Kirkpatrick, 1890</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sertularella areyi</t>
+          <t>Diphasia tropica Nutting, 1904</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sertularella diaphana</t>
+          <t>Dynamena dalmasi (Versluys, 1899)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sertularella integra</t>
+          <t>Dynamena disticha (Bosc, 1802)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sertularella paucicostata</t>
+          <t>Dynamena quadridentata (Ellis &amp; Solander, 1786)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sertularella quasiplana</t>
+          <t>Ectopleura dumortierii (van Beneden, 1844)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sertularia malayensis</t>
+          <t>Ectopleura larynx (Ellis &amp; Solander, 1786)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Symmetroscyphus australis</t>
+          <t>Egmundella humilis Fraser, 1936</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Symplectoscyphus candelabrum</t>
+          <t>Eudendrium album Nutting, 1896</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Symplectoscyphus filiformis</t>
+          <t>Eudendrium capillare Alder, 1856</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Symplectoscyphus johnstoni</t>
+          <t>Eudendrium glomeratum Picard, 1952</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Symplectoscyphus procerus</t>
+          <t>Eudendrium kirkpatricki Watson, 1985</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Synthecium dentigerum</t>
+          <t>Eudendrium unispirum Schuchert, 2008</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Synthecium elegans</t>
+          <t>Filellum antarcticum (Hartlaub, 1904)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Synthecium gordoni</t>
+          <t>Filellum contortum (Nutting, 1905)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Synthecium megathecum</t>
+          <t>Filellum serpens (Hassall, 1848)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Synthecium subventricosum</t>
+          <t>Filellum serratum (Clarke, 1879)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Tiaropsidium roseum</t>
+          <t>Filellum serratum (Clarke, 1879),</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Tridentata loculosa</t>
+          <t>Fiordlandia protecta Schuchert, 1996</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Tridentata marginata</t>
+          <t>Gonothyraea loveni (Allman, 1859)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Tridentata tumida</t>
+          <t>Gymnangium exsertum (Millard, 1962)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Tridentata turbinata</t>
+          <t>Gymnangium hians (Busk, 1852)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Tulpa diverticulata</t>
+          <t>Gymnangium humile (Bale, 1884)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Turritopsis nutricula</t>
+          <t>Gymnangium prolifer (Bale, 1882)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Zygophylax sibogae</t>
+          <t>Gymnangium speciosum (Allman, 1877)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Zygophylax unilateralis</t>
+          <t>Gymnangium tubuliferum (Bale, 1914)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Gymnnangium ferlusi (Billard, 1901)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Halecium annuliforme Galea &amp; Schories, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Halecium beanii (Johnston, 1838)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Halecium delicatulum Coughtrey, 1876</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Halecium dichotomum Allman, 1888</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Halecium discoidum Galea, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Halecium dyssymetrum Billard, 1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Halecium fragile Hodgson, 1950</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Halecium lightbourni Calder, 1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Halecium marsupiale Bergh, 1887</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Halecium minutum Broch, 1903</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Halecium muricatum (Ellis &amp; Solander, 1786)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Halecium nanum Alder, 1859</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Halecium scutum Clark, 1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Halecium sibogae marocanum Billard, 1934</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Halecium tenellum Hincks, 1861</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Halecium textum Kramp, 1911</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Halecium vasiforme Fraser, 1935</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Halopteris alternata (Nutting, 1900)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Halopteris campanula (Busk, 1852)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Halopteris catharina (Johnston, 1833)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Halopteris concava (Billard, 1911)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Halopteris diaphana (Heller, 1868)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Halopteris minuta (Trebilcock, 1928)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Halopteris plagiocampa (Pictet, 1893)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Halopteris plumosa Galea &amp; Schories, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Halopteris polymorpha (Billard, 1913)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Hartlaubella gelatinosa (Pallas, 1766)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Hebella dispolitans (Warren, 1909)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Hebella dyssymetra Billard, 1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Hebella furax Millard, 1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Hebella scandens (Bale, 1888)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Hebella striata Allman, 1888</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Hebella venusta (Allman, 1877)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Hydractinia arctica (Jäderholm, 1902)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Hydrallmania falcata (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Hydrodendron gracilis (Fraser, 1914)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Kirchenpaueria bonnevieae (Billard, 1906)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Kirchenpaueria curvata (Jäderholm, 1904)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Kirchenpaueria halecioides (Alder, 1859)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Lafoea dumosa (Fleming, 1820)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Laomedea calceolifera (Hincks, 1871)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Lovenella gracilis Clarke, 1882</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Lytocarpia epizoica Vervoort &amp; Watson, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Lytocarpia incisa (Coughtrey, 1875)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Lytocarpia myriophyllum (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Lytocarpia tridentata (Versluys, 1899)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Macrorhynchia clarkei (Nutting, 1900)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Macrorhynchia philippina (Kirchenpauer, 1872)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Modeeria rotunda (Quoy &amp; Gaimard, 1827)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Monostaechas quadridens (McCrady, 1859)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Monotheca margaretta Nutting, 1900</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Monotheca pulchella (Bale, 1882)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Nemalecium lighti (Hargitt, 1924)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Nemertesia antennina (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Nemertesia perrieri (Billard, 1901)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Nemertesia ramosa (Lamarck, 1816)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Neoturris pileata (Forsskål, 1775)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Obelia bidentata Clark, 1875</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Obelia dichotoma (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Obelia geniculata (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Obelia hyalina Clarke, 1879</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Obelia longissima (Pallas, 1766)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Obelia oxydentata Stechow, 1914</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Orthopyxis affabilis Vervoort &amp; Watson, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Orthopyxis crenata (Hartlaub, 1901)</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Orthopyxis integra (MacGillivray, 1842)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Orthopyxis mollis (Stechow, 1919)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Pachycordyle pusilla (Motz-Kossowska, 1905)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Parascyphus simplex (Lamouroux, 1816)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Parawrightia robusta Warren, 1907</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Pennaria disticha Goldfuss, 1820</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Phialella quadrata (Forbes, 1848)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Plumularia epibracteolosa Watson, 1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Plumularia floridana Nutting, 1900</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Plumularia hyalina Bale, 1882</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Plumularia setacea (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Plumularia strictocarpa Pictet, 1893</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Podocoryna borealis (Mayer, 1900)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Polyplumaria bedoti (Billard, 1911)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Pseudoplumaria marocana (Billard, 1930)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Pycnotheca mirabilis (Allman, 1883)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Rhizogeton nudus Broch, 1909</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Rhizorhagium roseum M. Sars, 1874</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Salacia bicalycula (Coughtrey, 1876)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Salacia desmoides (Torrey, 1902)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Salacia farquhari (Bale, 1924)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Sarsia tubulosa (M. Sars, 1835)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Scandia mutabilis (Ritchie, 1907)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sertularella acutidentata Billard, 1919</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Sertularella areyi Nutting, 1904</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Sertularella conica Allman, 1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Sertularella diaphana (Allman, 1885)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Sertularella gayi (Lamouroux, 1821)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sertularella gigantea Hincks, 1874
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Sertularella integra Allman, 1876</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sertularella ornata Broch, 1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Sertularella pellucida Jäderholm, 1908</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sertularella polyzonias (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Sertularella quasiplana Trebilcock, 1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Sertularella tenella (Alder, 1857)</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sertularella valdiviae Stechow, 1923</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Sertularella vervoorti El Beshbeeshy, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Sertularelloides cylindritheca (Allman, 1888)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Sertularia argentea Linnaeus, 1758</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Sertularia malayensis Billard, 1925</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Stauridiosarsia producta (Wright, 1858)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Staurostoma mertensii (Brandt, 1835)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Stegolaria geniculata (Allman, 1888)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Streptocaulus pulcherrimus Allman, 1883</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Symmetroscyphus australis Vervoort &amp; Watson, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Symmetroscyphus intermedius (Congdon, 1907)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Symplectoscyphus candelabrum Vervoort &amp; Watson, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Symplectoscyphus filiformis (Allman, 1888)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Symplectoscyphus johnstoni (Gray, 1843)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Symplectoscyphus plectilis (Hickson &amp; Gravely, 1907)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Synthecium elegans Allman, 1872</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Synthecium gordoni Vervoort &amp; Watson, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Synthecium megathecum Billard, 1925</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Synthecium orthogonium (Busk, 1852)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Synthecium subventricosum Bale, 1914</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Tetrapoma quadridentatum (Hincks, 1874)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Thuiaria operculata Watson, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Thyroscyphus marginatus (Allman, 1877)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Thyroscyphus torresii (Busk, 1852)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Tiaropsidium roseum (Maas, 1905)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Tridentata borneensis (Billard, 1925)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Tridentata loculosa (Busk, 1852)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Tridentata marginata (Kirchenpauer, 1864)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Tridentata rugosissima (Thornely, 1904)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Tridentata tumida (Allman, 1877)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Tridentata turbinata (Lamouroux, 1816)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Tubularia indivisa Linnaeus, 1758</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Tulpa diverticulata Totton, 1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Turritopsis nutricula McCrady, 1857</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Zanclea implexa (Alder, 1856)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Zygophylax biarmata Billard, 1905</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Zygophylax millardae Rees &amp; Vervoort, 1987</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Zygophylax parabiarmata Vervoort, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Zygophylax sibogae Billard, 1918</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Zygophylax unilateralis Totton, 1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Zyzzyzus warreni Calder, 1988</t>
         </is>
       </c>
     </row>
@@ -1592,7 +2780,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1601,7 +2789,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>EP_family</t>
+          <t>Family_EP</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1617,7 +2805,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1627,187 +2815,187 @@
         </is>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Halopterididae</t>
+          <t>Aglaopheniidae</t>
         </is>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lafoeidae</t>
+          <t>Halopterididae</t>
         </is>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sertularellidae</t>
+          <t>Haleciidae</t>
         </is>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aglaopheniidae</t>
+          <t>Sertularellidae</t>
         </is>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Haleciidae</t>
+          <t>Hebellidae</t>
         </is>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hebellidae</t>
+          <t>Plumulariidae</t>
         </is>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Plumulariidae</t>
+          <t>Bougainvilliidae</t>
         </is>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Syntheciidae</t>
+          <t>Lafoeidae</t>
         </is>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Symplectoscyphidae</t>
+          <t>Zygophylacidae</t>
         </is>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bougainvilliidae</t>
+          <t>Campanulinidae</t>
         </is>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Campanulinidae</t>
+          <t>Eudendriidae</t>
         </is>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hydractiniidae</t>
+          <t>Syntheciidae</t>
         </is>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kirchenpaueriidae</t>
+          <t>Corynidae</t>
         </is>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thyroscyphidae</t>
+          <t>Kirchenpaueriidae</t>
         </is>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Zygophylacidae</t>
+          <t>Symplectoscyphidae</t>
         </is>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Corynidae</t>
+          <t>Thyroscyphidae</t>
         </is>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Eudendriidae</t>
+          <t>Tubulariidae</t>
         </is>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lovenellidae</t>
+          <t>Hydractiniidae</t>
         </is>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1817,23 +3005,23 @@
         </is>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Phialellidae</t>
+          <t>Tiarannidae</t>
         </is>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tiarannidae</t>
+          <t>Acaulidae</t>
         </is>
       </c>
       <c r="B24">
@@ -1843,10 +3031,130 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Cirrholoveniidae</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cladocorynidae</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cordylophoridae</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Laodiceidae</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Lovenellidae</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mitrocomidae</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Pandeidae</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Pennariidae</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Phialellidae</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Phylactothecidae</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Plumulariiidae</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>Tiaropsidae</t>
         </is>
       </c>
-      <c r="B25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Zancleidae</t>
+        </is>
+      </c>
+      <c r="B37">
         <v>1</v>
       </c>
     </row>
@@ -1857,7 +3165,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A118"/>
+  <dimension ref="A1:A219"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1866,826 +3174,1534 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Scientific_name_BS</t>
+          <t>BasHydSpe</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lytocarpia vulgaris</t>
+          <t>Tubularia indivisa Linnaeus, 1758</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Obelia dichotoma</t>
+          <t>Halecium sessile Norman, 1867</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crateritheca zelandica</t>
+          <t>Macrorhynchia allmani (Nutting, 1900)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Corhiza scotiae</t>
+          <t>Aglaophenia kirchenpaueri (Heller, 1868)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Monostaechas quadridens</t>
+          <t>Sertularelloides cylindritheca (Allman, 1888)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Macrorhynchia phoenicea</t>
+          <t>Thyroscyphus ramosus Allman, 1877</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aglaophenia laxa</t>
+          <t>Antennella secundaria (Gmelin, 1791)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Halopteris minuta</t>
+          <t>Aglaophenia octodonta (Heller, 1868)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sertularella quasiplana</t>
+          <t>Anthohebella parasitica (Ciamician, 1880)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lytocarpia rigida</t>
+          <t>Aglaophenia parvula Bale, 1882</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tasmanaria edentula</t>
+          <t>Clytia hemisphaerica (Linnaeus, 1767)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lafoea dumosa</t>
+          <t>Nemertesia antennina (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Plumularia setacea</t>
+          <t>Pennaria disticha Goldfuss, 1820</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sertularella polyzonias</t>
+          <t>Sertularella diaphana (Allman, 1885)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Symplectoscyphus filiformis</t>
+          <t>Thyroscyphus marginatus (Allman, 1877)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pennaria disticha</t>
+          <t>Macrorhynchia clarkei (Nutting, 1900)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Parascyphus repens</t>
+          <t>Streptocaulus pulcherrimus Allman, 1883</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Symplectoscyphus magellanicus</t>
+          <t>Aglaophenia tubulifera (Hincks, 1861)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Synthecium protectum</t>
+          <t>Bimeria vestita Wright, 1859</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Eudendrium</t>
+          <t>Nemertesia ramosa (Lamarck, 1816)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Amphisbetia operculata</t>
+          <t>Aglaophenia pluma (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sertularella sanmatiasensis</t>
+          <t>Aglaophenia svobodai Ansin Agis, Ramil &amp; Vervoort, 2001</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Symplectoscyphus leloupi</t>
+          <t>Diphasia margareta (Hassall, 1841)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Symplectoscyphus milneanus</t>
+          <t>Eudendrium carneum Clarke, 1882</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Symplectoscyphus columnarius</t>
+          <t>Lytocarpia tridentata (Versluys, 1899)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Symplectoscyphus johnstoni</t>
+          <t>Sertularella gayi (Lamouroux, 1821)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hybocodon chilensis</t>
+          <t>Sertularia argentea Linnaeus, 1758</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tubularia</t>
+          <t>Lytocarpia vulgaris Vervoort &amp; Watson, 2003</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Halecium delicatulum</t>
+          <t>Obelia dichotoma (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Obelia</t>
+          <t>Monotheca margaretta Nutting, 1900</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Salacia bicalycula</t>
+          <t>Halopteris carinata Allman, 1877</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bougainvillia muscus</t>
+          <t>Crateritheca zelandica (Gray, 1843)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clathrozoon wilsoni</t>
+          <t>Acryptolaria conferta (Allman, 1877)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cryptolaria exserta</t>
+          <t>Aglaophenia lophocarpa Allman, 1877</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nemertesia</t>
+          <t>Corhiza scotiae (Ritchie, 1907)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Modeeria rotunda</t>
+          <t>Diphasia digitalis (Busk, 1852)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aglaophenia whiteleggei</t>
+          <t>Halopteris catharina (Johnston, 1833)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aglaopheniidae</t>
+          <t>Lytocarpia myriophyllum (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Caminothujaria molukkana</t>
+          <t>Monostaechas quadridens (McCrady, 1859)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Gymnangium vegae</t>
+          <t>Idiellana pristis (Lamouroux, 1816)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Synthecium</t>
+          <t>Lafoea dumosa (Fleming, 1820)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Symplectoscyphus odontiferus</t>
+          <t>Macrorhynchia phoenicea (Busk, 1852)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Halecium</t>
+          <t>Thyroscyphus torresii (Busk, 1852)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Halecium beanii</t>
+          <t>Aglaophenia laxa Allman, 1876</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Dictyocladium thuja</t>
+          <t>Halopteris minuta (Trebilcock, 1928)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Eudendrium terranovae</t>
+          <t>Sertularella quasiplana Trebilcock, 1928</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lytocarpia chiltoni</t>
+          <t>Taxella longicornis (Busk, 1852)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sertularella gayi</t>
+          <t>Cryptolaria pectinata (Allman, 1888)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Symplectoscyphus</t>
+          <t>Zygophylax biarmata Billard, 1905</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cryptolaria prima</t>
+          <t>Lytocarpia rigida Vervoort &amp; Watson, 2003</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Dictyocladium monilifer</t>
+          <t>Tasmanaria edentula (Bale, 1924)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Lytocarpia subdichotoma</t>
+          <t>Abietinaria abietina (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Acryptolaria operculata</t>
+          <t>Clytia paulensis (Vanhöffen, 1910)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Dictyocladium reticulatum</t>
+          <t>Dynamena crisioides Lamouroux, 1824</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Dictyocladium watsonae</t>
+          <t>Ectopleura crocea (Agassiz, 1862)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Halecium sessile</t>
+          <t>Halecium tenellum Hincks, 1861</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Obelia bidentata</t>
+          <t>Hincksella formosa (Fewkes, 1881)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Salacia spiralis</t>
+          <t>Plumularia setacea (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sertularella integra</t>
+          <t>Sertularella mediterranea Hartlaub, 1901</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Symplectoscyphus subarticulatus</t>
+          <t>Tridentata marginata (Kirchenpauer, 1864)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Synthecium megathecum</t>
+          <t>Sertularella polyzonias (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Synthecium subventricosum</t>
+          <t>Symplectoscyphus filiformis (Allman, 1888)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Corydendrium</t>
+          <t>Eudendrium rameum (Pallas, 1766)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Gymnangium ascidioides</t>
+          <t>Halecium muricatum (Ellis &amp; Solander, 1786)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Lytocarpia phyteuma</t>
+          <t>Hydrallmania falcata (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aglaophenia ctenata</t>
+          <t>Sertularella gigantea Hincks, 1874</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Synthecium elegans</t>
+          <t>Obelia bidentata Clark, 1875</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bougainvillia</t>
+          <t>Amphisbetia operculata (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Lytocarpia myriophyllum</t>
+          <t>Sertularella sanmatiasensis El Beshbeeshy, 2011</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hebella dyssymetra</t>
+          <t>Symplectoscyphus leloupi El Beshbeeshy, 2011</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Symplectoscyphus flexilis</t>
+          <t>Symplectoscyphus milneanus (D'Orbigny, 1842)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Macrorhynchia philippina</t>
+          <t>Bougainvillia rugosa Clarke, 1882</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sertularella</t>
+          <t>Eudendrium ramosum (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Synthecium samauense</t>
+          <t>Gonothyraea loveni (Allman, 1859)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Kirchenpaueria galapagensis</t>
+          <t>Hartlaubella gelatinosa (Pallas, 1766)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Lytocarpia alata</t>
+          <t>Eudendrium caraiuru Marques &amp; Oliveira, 2003</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Nemertesia ciliata</t>
+          <t>Aglaophenia latecarinata Allman, 1877</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Plumulariidae</t>
+          <t>Amphisbetia distans (Lamouroux, 1816)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Thuiaria</t>
+          <t>Halecium beanii (Johnston, 1838)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Bougainvillia pyramidata</t>
+          <t>Halecium delicatulum Coughtrey, 1876</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sertularia unguiculata</t>
+          <t>Macrorhynchia philippina Kirchenpauer, 1872</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Acryptolaria conferta</t>
+          <t>Halecium ralpha Watson &amp; Vervoort, 2001</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Billardia hyalina</t>
+          <t>Nemertesia perrieri (Billard, 1901)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lytocarpia brevirostris</t>
+          <t>Obelia geniculata (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sertularella sinensis</t>
+          <t>Salacia bicalycula (Coughtrey, 1876)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Pseudoclathrozoon</t>
+          <t>Synthecium protectum Jäderholm, 1903</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Rhizocaulus</t>
+          <t>Halecium bermudense Congdon, 1907</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Obelia geniculata</t>
+          <t>Campanularia hincksii Alder, 1856</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Aglaophenia acanthocarpa</t>
+          <t>Ectopleura dumortierii (Van Beneden, 1844)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Hydrodendron mirabile</t>
+          <t>Lafoea coalescens Allman, 1877</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Solanderia misakiensis</t>
+          <t>Nemertesia belini Bedot, 1916</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Salacia farquhari</t>
+          <t>Polyplumaria flabellata Sars, 1874</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Crateritheca billardi</t>
+          <t>Bougainvillia muscus (Allman, 1863)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Symplectoscyphus patagonicus</t>
+          <t>Cordylophora caspia (Pallas, 1771)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Acryptolaria</t>
+          <t>Abietinaria fusca (Johnston, 1847)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Gigantotheca maxima</t>
+          <t>Clava multicornis (Forsskål, 1775)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Zygophylax</t>
+          <t>Clathrozoon wilsoni Spencer, 1891</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Crateritheca bidens</t>
+          <t>Cryptolaria exserta Busk, 1858</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Lictorella</t>
+          <t>Modeeria rotunda (Quoy &amp; Gaimard, 1827)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Synthecium dentigerum</t>
+          <t>Aglaophenia whiteleggei Bale, 1888</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Crateritheca novaezelandiae</t>
+          <t>Caminothujaria molukkana Campenhausen, 1896</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Pycnotheca mirabilis</t>
+          <t>Nemertesia rugosa (Nutting, 1900)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Cryptolaria pectinata</t>
+          <t>Monoserius pennarius (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Nemertesia elongata</t>
+          <t>Gymnangium vegae (Jäderholm, 1903)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sertularella geodiae</t>
+          <t>Lytocarpia angulosa (Lamarck, 1816)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Lytocarpia</t>
+          <t>Ralpharia sanctisebastiani (Da Silveira &amp; Migotto, 1984)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Antennella secundaria</t>
+          <t>Symplectoscyphus odontiferus Vervoort &amp; Watson, 2003</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sertularia malayensis</t>
+          <t>Ectopleura larynx (Ellis &amp; Solander, 1786)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Taxella</t>
+          <t>Grammaria abietina (Sars, 1851)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Tridentata turbinata</t>
+          <t>Clytia gracilis (M. Sars, 1851)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Solanderia secunda</t>
+          <t>Eudendrium glomeratum Picard, 1952</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Distichopora violacea</t>
+          <t>Sciurella indivisa Allman, 1883</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gymnangium hians</t>
+          <t>Antarctoscyphus elongatus (Jäderholm, 1904)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Pennaria</t>
+          <t>Schizotricha multifurcata Allman, 1883</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Gigantotheca raukumarai</t>
+          <t>Cryptolaria prima Busk, 1857</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Gymnangium japonicum</t>
+          <t>Dictyocladium monilifer (Hutton, 1873)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Monoserius pennarius</t>
+          <t>Diphasia fallax (Johnston, 1847)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Lytocarpia subdichotoma (Ralph, 1961)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Symplectoscyphus johnstoni (Gray, 1843)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Acryptolaria operculata Stepanjants, 1979</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Antennella siliquosa (Hincks, 1877)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Dictyocladium reticulatum (Kirchenpauer, 1884)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Dictyocladium thuja Vervoort &amp; Watson, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Dictyocladium watsonae (Vervoort, 1993)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Halopteris polymorpha (Billard, 1913)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Hebella scandens (Bale, 1888)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Lytocarpia chiltoni (Bale, 1924)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Plumularia antonbruuni Millard, 1967</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Salacia spiralis (Trebilcock, 1928)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sertularella conica Allman, 1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Sertularella integra Allman, 1876</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Symplectoscyphus subarticulatus (Coughtrey, 1875)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Synthecium megathecum Billard, 1925</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Synthecium patulum (Busk, 1852)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Synthecium subventricosum Bale, 1914</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Synthecium tubithecum (Allman, 1877)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Lytocarpia flexuosa (Lamouroux, 1816)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Gymnangium ascidioides (Bale, 1882)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Lytocarpia phyteuma (Stechow, 1919)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Aglaophenia ctenata (Totton, 1930)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Parascyphus repens (Jäderholm, 1904)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Halecium sibogae marocanum Billard, 1934</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Hybocodon chilensis Hartlaub, 1905</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Symplectoscyphus marionensis Millard, 1971</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Zygophylax polycarpa Vervoort &amp; Watson, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Gonaxia tasmanica Watson &amp; Vervoort, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Synthecium elegans Allman, 1872</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Abietinaria filicula (Ellis &amp; Solander, 1786)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Dynamena quadridentata (Ellis &amp; Solander, 1786)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Acryptolaria longitheca (Allman, 1877)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Antennella quadriaurita Ritchie, 1909</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Hebella dyssymetra Billard, 1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Symplectoscyphus flexilis (Hartlaub, 1901)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Halopteris alternata (Nutting, 1900)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Amphisbetia maplestonei (Bale, 1884)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Antennella gracilis Allman, 1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Kirchenpaueria halecioides (Alder, 1859)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Macrorhynchia filamentosa (Lamarck, 1816)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Sertularella arbuscula (Lamouroux, 1816)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Synthecium campylocarpum Allman, 1888</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Synthecium samauense Billard, 1925</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Salacia tetracythara Lamouroux, 1816</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acryptolaria operculata Stepanjants, 1979
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Cladocarpus dofleini (Stechow, 1911)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Kirchenpaueria galapagensis (Calder, Mallinson, Collins &amp; Hickman, 2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Lytocarpia alata Vervoort &amp; Watson, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Nemertesia ciliata Bale, 1914</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Bougainvillia pyramidata (Forbes &amp; Goodsir, 1853)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Bedotella armata (Pictet &amp; Bedot, 1900)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Turritopsis nutricula McCrady, 1857</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Zygophylax parabiarmata Vervoort, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Billardia hyalina Vervoort &amp; Watson, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Filellum serratum (Clarke, 1879)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Lytocarpia brevirostris (Busk, 1852)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Sertularella sinensis Jäderholm, 1896</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Symplectoscyphus columnarius (Briggs, 1914)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Antennella ansini Peña Cantero &amp; García Carrascosa, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Obelia bidentata Clark, 1874</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Sertularella gaudichaudi (Lamouroux, 1824)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Synthecium protectum Jäderholm, 1904</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Calyptospadix cerulea Clarke, 1882</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Pachycordyle pusilla (Motz-Kossowska, 1905)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Aglaophenia acacia Allman, 1883</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Hydrodendron mirabile (Hincks, 1866)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Nemertesia cymodocea (Busk, 1851)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Nemertesia norvegica (Sars, 1873)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Pseudoplumaria marocana (Billard, 1930)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Thuiaria articulata (Pallas, 1766)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Salacia farquhari (Bale, 1924)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Crateritheca billardi (Bale, 1915)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Gigantotheca maxima Vervoort &amp; Watson, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Sertularia unguiculata Busk, 1852</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Aglaophenia rhynchocarpa Allman, 1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Nemertesia sinuosa (Fraser, 1947)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Filellum serpens (Hassall, 1848)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Crateritheca bidens Vervoort &amp; Watson, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sertularella valdiviae Stechow, 1923</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Tasmanaria aegis Watson &amp; Vervoort, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sertularella quadridens (Bale, 1884)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Synthecium dentigerum Jarvis, 1922</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Diphasia delagei Billard, 1912</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Myrionema amboinense Pictet, 1893</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Crateritheca novaezelandiae (Thompson, 1879)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Pycnotheca mirabilis (Allman, 1883)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Nemertesia elongata Totton, 1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Sertularella geodiae Totton, 1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Dynamena disticha (Bosc, 1802)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Sertularia malayensis Billard, 1925</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Tridentata turbinata (Lamouroux, 1816)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Solanderia secunda (Inaba, 1892)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Distichopora violacea (Pallas, 1766)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Gymnangium hians (Busk, 1852)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Turritopsis dohrnii (Weismann, 1883)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Laomedea calceolifera (Hincks, 1871)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Zygophylax brownei Billard, 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Gigantotheca raukumarai Vervoort &amp; Watson, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Gymnangium japonicum Watson &amp; Vervoort, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Clytia linearis (Thorneley, 1900)</t>
         </is>
       </c>
     </row>
@@ -2696,7 +4712,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2705,7 +4721,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>BS_Family</t>
+          <t>Family_BS</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2717,91 +4733,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aglaopheniidae</t>
+          <t>Sertulariidae</t>
         </is>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sertulariidae</t>
+          <t>Aglaopheniidae</t>
         </is>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Symplectoscyphidae</t>
+          <t>Sertularellidae</t>
         </is>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sertularellidae</t>
+          <t>Campanulariidae</t>
         </is>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Syntheciidae</t>
+          <t>Halopterididae</t>
         </is>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Campanulariidae</t>
+          <t>Plumulariidae</t>
         </is>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lafoeidae</t>
+          <t>Symplectoscyphidae</t>
         </is>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Plumulariidae</t>
+          <t>Syntheciidae</t>
         </is>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Zygophylacidae</t>
+          <t>Lafoeidae</t>
         </is>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2811,17 +4827,17 @@
         </is>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Halopterididae</t>
+          <t>Zygophylacidae</t>
         </is>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2831,83 +4847,83 @@
         </is>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Clathrozoidae</t>
+          <t>Eudendriidae</t>
         </is>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Eudendriidae</t>
+          <t>Tubulariidae</t>
         </is>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kirchenpaueriidae</t>
+          <t>Plumulariiidae</t>
         </is>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pennariidae</t>
+          <t>Thyroscyphidae</t>
         </is>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Solanderiidae</t>
+          <t>Hebellidae</t>
         </is>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tubulariidae</t>
+          <t>Kirchenpaueriidae</t>
         </is>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hebellidae</t>
+          <t>Oceaniidae</t>
         </is>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Oceaniidae</t>
+          <t>Clathrozoidae</t>
         </is>
       </c>
       <c r="B21">
@@ -2917,7 +4933,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Phylactothecidae</t>
+          <t>Cordylophoridae</t>
         </is>
       </c>
       <c r="B22">
@@ -2927,7 +4943,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Stylasteridae</t>
+          <t>Gonaxiidae</t>
         </is>
       </c>
       <c r="B23">
@@ -2937,7 +4953,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Thyroscyphidae</t>
+          <t>Hydractiniidae</t>
         </is>
       </c>
       <c r="B24">
@@ -2947,10 +4963,70 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Pennariidae</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Phylactothecidae</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Schizotrichidae</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Solanderiidae</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Stylasteridae</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Tiarannidae</t>
         </is>
       </c>
-      <c r="B25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tubulriidae</t>
+        </is>
+      </c>
+      <c r="B31">
         <v>1</v>
       </c>
     </row>
@@ -2961,7 +5037,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2970,7 +5046,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>EP_Genera</t>
+          <t>Genus_EP</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2982,367 +5058,367 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sertularella</t>
+          <t>Halecium</t>
         </is>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Halecium</t>
+          <t>Sertularella</t>
         </is>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Symmetroscyphus</t>
+          <t>Clytia</t>
         </is>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Synthecium</t>
+          <t>Diphasia</t>
         </is>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tridentata</t>
+          <t>Aglaophenia</t>
         </is>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Filellum</t>
+          <t>Halopteris</t>
         </is>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Halopteris</t>
+          <t>Antennella</t>
         </is>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Plumularia</t>
+          <t>Gymnangium</t>
         </is>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bougainvillia</t>
+          <t>Hebella</t>
         </is>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Campanularia</t>
+          <t>Obelia</t>
         </is>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Clytia</t>
+          <t>Tridentata</t>
         </is>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gymnangium</t>
+          <t>Bougainvillia</t>
         </is>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hebella</t>
+          <t>Campanularia</t>
         </is>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Orthopyxis</t>
+          <t>Eudendrium</t>
         </is>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Salacia</t>
+          <t>Filellum</t>
         </is>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amphisbetia</t>
+          <t>Plumularia</t>
         </is>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Antennella</t>
+          <t>Synthecium</t>
         </is>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Anthohebella</t>
+          <t>Zygophylax</t>
         </is>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dictyocladium</t>
+          <t>Anthohebella</t>
         </is>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Diphasia</t>
+          <t>Lytocarpia</t>
         </is>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dynamena</t>
+          <t>Orthopyxis</t>
         </is>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kirchenpaueria</t>
+          <t>Symplectoscyphus</t>
         </is>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lytocarpia</t>
+          <t>Amphisbetia</t>
         </is>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Zygophylax</t>
+          <t>Dynamena</t>
         </is>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Billardia</t>
+          <t>Kirchenpaueria</t>
         </is>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Campanulina</t>
+          <t>Nemertesia</t>
         </is>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Coryne</t>
+          <t>Salacia</t>
         </is>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cuspidella</t>
+          <t>Campanulina</t>
         </is>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Eudendrium</t>
+          <t>Coryne</t>
         </is>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fiordlandia</t>
+          <t>Dictyocladium</t>
         </is>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Grammaria</t>
+          <t>Ectopleura</t>
         </is>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hydractinia</t>
+          <t>Macrorhynchia</t>
         </is>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lafoea</t>
+          <t>Monotheca</t>
         </is>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lovenella</t>
+          <t>Sertularia</t>
         </is>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Macrorhynchia</t>
+          <t>Symmetroscyphus</t>
         </is>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Modeeria</t>
+          <t>Thyroscyphus</t>
         </is>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Monostaechas</t>
+          <t>Acaulis</t>
         </is>
       </c>
       <c r="B38">
@@ -3352,7 +5428,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Monotheca</t>
+          <t>Acryptolaria</t>
         </is>
       </c>
       <c r="B39">
@@ -3362,7 +5438,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Opercularella</t>
+          <t>Bedotella</t>
         </is>
       </c>
       <c r="B40">
@@ -3372,7 +5448,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Parascyphus</t>
+          <t>Billardia</t>
         </is>
       </c>
       <c r="B41">
@@ -3382,7 +5458,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Phialella</t>
+          <t>Bimeria</t>
         </is>
       </c>
       <c r="B42">
@@ -3392,7 +5468,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Podocoryne</t>
+          <t>Calycella</t>
         </is>
       </c>
       <c r="B43">
@@ -3402,7 +5478,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pycnotheca</t>
+          <t>Calyptospadix</t>
         </is>
       </c>
       <c r="B44">
@@ -3412,7 +5488,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sertularia</t>
+          <t>Cirrholovenia</t>
         </is>
       </c>
       <c r="B45">
@@ -3422,7 +5498,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tiaropsidium</t>
+          <t>Cladocoryne</t>
         </is>
       </c>
       <c r="B46">
@@ -3432,10 +5508,450 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>Cordylophora</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Corydendrium</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Cryptolaria</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Cyclocanna</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Egmundella</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Fiordlandia</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Gonothyraea</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Gymnnangium</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hartlaubella</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hydractinia</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hydrallmania</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hydrodendron</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Lafoea</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Laomedea</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Lovenella</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Modeeria</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Monostaechas</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Nemalecium</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Neoturris</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Pachycordyle</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Parascyphus</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Parawrightia</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Pennaria</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Phialella</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Podocoryna</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Polyplumaria</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Pseudoplumaria</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Pycnotheca</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Rhizogeton</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Rhizorhagium</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sarsia</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Scandia</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Sertularelloides</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Stauridiosarsia</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Staurostoma</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Stegolaria</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Streptocaulus</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Tetrapoma</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Thuiaria</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Tiaropsidium</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Tubularia</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Tulpa</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>Turritopsis</t>
         </is>
       </c>
-      <c r="B47">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Zanclea</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Zyzzyzus</t>
+        </is>
+      </c>
+      <c r="B91">
         <v>1</v>
       </c>
     </row>
@@ -3446,7 +5962,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3455,7 +5971,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>BS_Genera</t>
+          <t>Genus_BS</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3467,377 +5983,377 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Symplectoscyphus</t>
+          <t>Sertularella</t>
         </is>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lytocarpia</t>
+          <t>Aglaophenia</t>
         </is>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sertularella</t>
+          <t>Lytocarpia</t>
         </is>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Synthecium</t>
+          <t>Nemertesia</t>
         </is>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aglaophenia</t>
+          <t>Synthecium</t>
         </is>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Crateritheca</t>
+          <t>Symplectoscyphus</t>
         </is>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dictyocladium</t>
+          <t>Halecium</t>
         </is>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gymnangium</t>
+          <t>Antennella</t>
         </is>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Halecium</t>
+          <t>Eudendrium</t>
         </is>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Obelia</t>
+          <t>Halopteris</t>
         </is>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Acryptolaria</t>
+          <t>Macrorhynchia</t>
         </is>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bougainvillia</t>
+          <t>Acryptolaria</t>
         </is>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cryptolaria</t>
+          <t>Clytia</t>
         </is>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nemertesia</t>
+          <t>Crateritheca</t>
         </is>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Salacia</t>
+          <t>Dictyocladium</t>
         </is>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Eudendrium</t>
+          <t>Diphasia</t>
         </is>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gigantotheca</t>
+          <t>Gymnangium</t>
         </is>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Macrorhynchia</t>
+          <t>Obelia</t>
         </is>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pennaria</t>
+          <t>Salacia</t>
         </is>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sertularia</t>
+          <t>Zygophylax</t>
         </is>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Solanderia</t>
+          <t>Abietinaria</t>
         </is>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aglaopheniidae</t>
+          <t>Amphisbetia</t>
         </is>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Amphisbetia</t>
+          <t>Bougainvillia</t>
         </is>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Antennella</t>
+          <t>Cryptolaria</t>
         </is>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Billardia</t>
+          <t>Dynamena</t>
         </is>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Caminothujaria</t>
+          <t>Ectopleura</t>
         </is>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clathrozoon</t>
+          <t>Sertularia</t>
         </is>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Corhiza</t>
+          <t>Thyroscyphus</t>
         </is>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Corydendrium</t>
+          <t>Filellum</t>
         </is>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Distichopora</t>
+          <t>Gigantotheca</t>
         </is>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Halopteris</t>
+          <t>Hebella</t>
         </is>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hebella</t>
+          <t>Kirchenpaueria</t>
         </is>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hybocodon</t>
+          <t>Lafoea</t>
         </is>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hydrodendron</t>
+          <t>Plumularia</t>
         </is>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kirchenpaueria</t>
+          <t>Tasmanaria</t>
         </is>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lafoea</t>
+          <t>Tridentata</t>
         </is>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lictorella</t>
+          <t>Turritopsis</t>
         </is>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Modeeria</t>
+          <t>Antarctoscyphus</t>
         </is>
       </c>
       <c r="B39">
@@ -3847,7 +6363,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Monoserius</t>
+          <t>Anthohebella</t>
         </is>
       </c>
       <c r="B40">
@@ -3857,7 +6373,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Monostaechas</t>
+          <t>Bedotella</t>
         </is>
       </c>
       <c r="B41">
@@ -3867,7 +6383,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Parascyphus</t>
+          <t>Billardia</t>
         </is>
       </c>
       <c r="B42">
@@ -3877,7 +6393,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Plumularia</t>
+          <t>Bimeria</t>
         </is>
       </c>
       <c r="B43">
@@ -3887,7 +6403,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Plumulariidae</t>
+          <t>Calyptospadix</t>
         </is>
       </c>
       <c r="B44">
@@ -3897,7 +6413,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pseudoclathrozoon</t>
+          <t>Caminothujaria</t>
         </is>
       </c>
       <c r="B45">
@@ -3907,7 +6423,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pycnotheca</t>
+          <t>Campanularia</t>
         </is>
       </c>
       <c r="B46">
@@ -3917,7 +6433,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rhizocaulus</t>
+          <t>Cladocarpus</t>
         </is>
       </c>
       <c r="B47">
@@ -3927,7 +6443,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Tasmanaria</t>
+          <t>Clathrozoon</t>
         </is>
       </c>
       <c r="B48">
@@ -3937,7 +6453,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Taxella</t>
+          <t>Clava</t>
         </is>
       </c>
       <c r="B49">
@@ -3947,7 +6463,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Thuiaria</t>
+          <t>Cordylophora</t>
         </is>
       </c>
       <c r="B50">
@@ -3957,7 +6473,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tridentata</t>
+          <t>Corhiza</t>
         </is>
       </c>
       <c r="B51">
@@ -3967,7 +6483,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tubularia</t>
+          <t>Distichopora</t>
         </is>
       </c>
       <c r="B52">
@@ -3977,10 +6493,300 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Zygophylax</t>
+          <t>Gonaxia</t>
         </is>
       </c>
       <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Gonothyraea</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Grammaria</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hartlaubella</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hincksella</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hybocodon</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hydrallmania</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hydrodendron</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Idiellana</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Laomedea</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Modeeria</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Monoserius</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Monostaechas</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Monotheca</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Myrionema</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Pachycordyle</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Parascyphus</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Pennaria</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Polyplumaria</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Pseudoplumaria</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Pycnotheca</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ralpharia</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Schizotricha</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Sciurella</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sertularelloides</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Solanderia</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Streptocaulus</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Taxella</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Thuiaria</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Tubularia</t>
+        </is>
+      </c>
+      <c r="B82">
         <v>1</v>
       </c>
     </row>
